--- a/TNR_PREJDD/PREJDD.RO.CLI.xlsx
+++ b/TNR_PREJDD/PREJDD.RO.CLI.xlsx
@@ -10,8 +10,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhYkexUc9byj4byNVq7Ql4Slz8rwQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="vj3nwBzw2MbrgNRQiv0IHril7rV1D/gtRnGHfobflVw="/>
     </ext>
   </extLst>
 </workbook>
@@ -325,7 +325,7 @@
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -344,6 +344,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -431,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -441,22 +448,23 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="9" numFmtId="165" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -4663,7 +4671,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -4695,25 +4703,25 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
